--- a/CW4/temp_stat.xlsx
+++ b/CW4/temp_stat.xlsx
@@ -11,9 +11,6 @@
     <sheet name="Киев" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Львов" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Чернигов" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Киев1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Львов1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Чернигов1" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -437,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,12 +455,52 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Мінімальна температура</t>
+          <t>Мінімальна температура (День 1)</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Максимальна температура</t>
+          <t>Максимальна температура (День 1)</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Мінімальна температура (День 2)</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Мінімальна температура (День 2)</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Мінімальна температура (День 3)</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Мінімальна температура (День 3)</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Максимальна температура (День 4)</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Максимальна температура (День 4)</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Максимальна температура (День 5)</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Максимальна температура (День 5)</t>
         </is>
       </c>
     </row>
@@ -475,17 +512,67 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>+10°C</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>+4°</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>+11°</t>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -500,7 +587,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,12 +608,52 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Мінімальна температура</t>
+          <t>Мінімальна температура (День 1)</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Максимальна температура</t>
+          <t>Максимальна температура (День 1)</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Мінімальна температура (День 2)</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Мінімальна температура (День 2)</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Мінімальна температура (День 3)</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Мінімальна температура (День 3)</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Максимальна температура (День 4)</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Максимальна температура (День 4)</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Максимальна температура (День 5)</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Максимальна температура (День 5)</t>
         </is>
       </c>
     </row>
@@ -538,17 +665,67 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>+7°C</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-2°</t>
+          <t>-2</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>+14°</t>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>18</t>
         </is>
       </c>
     </row>
@@ -563,7 +740,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,12 +761,52 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Мінімальна температура</t>
+          <t>Мінімальна температура (День 1)</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Максимальна температура</t>
+          <t>Максимальна температура (День 1)</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Мінімальна температура (День 2)</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Мінімальна температура (День 2)</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Мінімальна температура (День 3)</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Мінімальна температура (День 3)</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Максимальна температура (День 4)</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Максимальна температура (День 4)</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Максимальна температура (День 5)</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Максимальна температура (День 5)</t>
         </is>
       </c>
     </row>
@@ -601,206 +818,67 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>+9°C</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>+4°</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>+11°</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Дата</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Поточна температура</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Мінімальна температура</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Максимальна температура</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2025-03-05</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
           <t>11</t>
         </is>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Дата</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Поточна температура</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Мінімальна температура</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Максимальна температура</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2025-03-05</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Дата</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Поточна температура</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Мінімальна температура</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Максимальна температура</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2025-03-05</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>11</t>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>14</t>
         </is>
       </c>
     </row>
